--- a/upload/excel/2506_동아고_발주서_에스에이치유통_업로드용.xlsx
+++ b/upload/excel/2506_동아고_발주서_에스에이치유통_업로드용.xlsx
@@ -528,7 +528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AE9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="W7" activeCellId="5" sqref="G8 G5 O5 O7 W5 W7"/>
@@ -542,6 +542,7 @@
     <col width="5.796875" customWidth="1" style="10" min="7" max="31"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2" ht="19.2" customHeight="1" s="10">
       <c r="A2" s="4" t="inlineStr">
         <is>
@@ -717,6 +718,11 @@
       <c r="AE5" s="1" t="inlineStr">
         <is>
           <t>총량</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>계약단가</t>
         </is>
       </c>
     </row>
@@ -784,6 +790,9 @@
           <t>60</t>
         </is>
       </c>
+      <c r="AF6" t="n">
+        <v>8950</v>
+      </c>
     </row>
     <row r="7" ht="45" customHeight="1" s="10">
       <c r="A7" s="3" t="inlineStr">
@@ -852,6 +861,9 @@
         <is>
           <t>157</t>
         </is>
+      </c>
+      <c r="AF7" t="n">
+        <v>9050</v>
       </c>
     </row>
     <row r="8" ht="45" customHeight="1" s="10">
@@ -918,6 +930,9 @@
           <t>100</t>
         </is>
       </c>
+      <c r="AF8" t="n">
+        <v>23516</v>
+      </c>
     </row>
     <row r="9" ht="45" customHeight="1" s="10">
       <c r="A9" s="3" t="inlineStr"/>
